--- a/mail_project/custinfo.xlsx
+++ b/mail_project/custinfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brasea\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84854835-F10B-417D-9976-2FD1AA47903A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB46D0EB-0A0C-4189-8507-E665448249C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="customer_info" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
   <si>
     <t>company name</t>
   </si>
@@ -195,6 +195,12 @@
   </si>
   <si>
     <t>L3KDMNGUEF</t>
+  </si>
+  <si>
+    <t>work number</t>
+  </si>
+  <si>
+    <t>site number</t>
   </si>
 </sst>
 </file>
@@ -560,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -618,6 +624,22 @@
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="2">
+        <v>37295482</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="2">
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -633,7 +655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E7530B-C8F5-4801-AA39-2D5822E040EB}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -812,7 +834,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/mail_project/custinfo.xlsx
+++ b/mail_project/custinfo.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brasea\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brasea\Desktop\Workspace\python_learning\mail_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB46D0EB-0A0C-4189-8507-E665448249C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C963EA-32A4-41D9-B9E7-264A3E73D26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="customer_info" sheetId="1" r:id="rId1"/>
-    <sheet name="phone_numbers" sheetId="2" r:id="rId2"/>
+    <sheet name="phone_numbers" sheetId="4" r:id="rId2"/>
     <sheet name="bill_of_materials" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -568,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -652,14 +652,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E7530B-C8F5-4801-AA39-2D5822E040EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14DBC944-54BF-4E48-BF48-ED9D07C1CEB9}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
@@ -820,12 +820,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{8CA18010-A29D-40C9-AD51-56933D4F01F5}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{FDF2E9CB-276C-4E14-B92A-6C4F531DCE81}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{7668D064-7A88-45A3-8C22-CC7462C4087D}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{5335F9C3-61AA-4A6B-9096-77630FC7A156}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{B1AF8D6D-6388-41D3-83B0-D65E557D4008}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{7965A920-81BF-4243-BCA5-D6A6678E8FE5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/mail_project/custinfo.xlsx
+++ b/mail_project/custinfo.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brasea\Desktop\Workspace\python_learning\mail_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C963EA-32A4-41D9-B9E7-264A3E73D26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A131CD92-62D5-429D-8644-68BCC0EF0096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2800" yWindow="520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="customer_info" sheetId="1" r:id="rId1"/>
-    <sheet name="phone_numbers" sheetId="4" r:id="rId2"/>
+    <sheet name="phone_numbers" sheetId="2" r:id="rId2"/>
     <sheet name="bill_of_materials" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -26,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,12 +45,21 @@
     <t>company address</t>
   </si>
   <si>
+    <t>1024 glizzy lane, globble NJ 07002</t>
+  </si>
+  <si>
     <t>contact name</t>
   </si>
   <si>
+    <t xml:space="preserve">bob johnson </t>
+  </si>
+  <si>
     <t>contact email address</t>
   </si>
   <si>
+    <t>bjohnson@yahoo.com</t>
+  </si>
+  <si>
     <t>backup contact</t>
   </si>
   <si>
@@ -62,6 +72,12 @@
     <t>jsmith@gmail.com</t>
   </si>
   <si>
+    <t>work number</t>
+  </si>
+  <si>
+    <t>site number</t>
+  </si>
+  <si>
     <t>phone order 1</t>
   </si>
   <si>
@@ -74,33 +90,102 @@
     <t>first name</t>
   </si>
   <si>
+    <t>john</t>
+  </si>
+  <si>
+    <t>bill</t>
+  </si>
+  <si>
+    <t>ryan</t>
+  </si>
+  <si>
     <t>last name</t>
   </si>
   <si>
+    <t>aaronson</t>
+  </si>
+  <si>
+    <t>kyles</t>
+  </si>
+  <si>
+    <t>martins</t>
+  </si>
+  <si>
     <t>email address</t>
   </si>
   <si>
+    <t>johnaaron@gmail.com</t>
+  </si>
+  <si>
+    <t>billkyles@gmail.com</t>
+  </si>
+  <si>
+    <t>ryanmartins@gmail.com</t>
+  </si>
+  <si>
     <t>temp number</t>
   </si>
   <si>
+    <t>000 555-0101</t>
+  </si>
+  <si>
+    <t>000 555-0102</t>
+  </si>
+  <si>
+    <t>000 555-0103</t>
+  </si>
+  <si>
     <t>phone model</t>
   </si>
   <si>
+    <t>6651 model phone</t>
+  </si>
+  <si>
+    <t>3321 model phone</t>
+  </si>
+  <si>
     <t>phone port number</t>
   </si>
   <si>
     <t>device username</t>
   </si>
   <si>
+    <t>SHEJFO</t>
+  </si>
+  <si>
+    <t>QPLIFY</t>
+  </si>
+  <si>
+    <t>SNEMUC</t>
+  </si>
+  <si>
     <t>device password</t>
   </si>
   <si>
     <t>mac address</t>
   </si>
   <si>
+    <t>63-0C-EE-83-E1-1D</t>
+  </si>
+  <si>
+    <t>6D-1F-1A-B9-97-41</t>
+  </si>
+  <si>
+    <t>6D-1F-1A-B2-22-42</t>
+  </si>
+  <si>
     <t>serial number</t>
   </si>
   <si>
+    <t>L3KDMNGUES</t>
+  </si>
+  <si>
+    <t>L3KDMNGUED</t>
+  </si>
+  <si>
+    <t>L3KDMNGUEF</t>
+  </si>
+  <si>
     <t>qty</t>
   </si>
   <si>
@@ -110,104 +195,20 @@
     <t>description</t>
   </si>
   <si>
-    <t xml:space="preserve">bob johnson </t>
-  </si>
-  <si>
-    <t>bjohnson@yahoo.com</t>
+    <t>CSCO_VOIP_6651</t>
   </si>
   <si>
     <t>CSCO_SW_24P</t>
   </si>
   <si>
-    <t>CSCO_VOIP_6651</t>
-  </si>
-  <si>
-    <t>6651 model phone</t>
-  </si>
-  <si>
     <t>cisco 24 port switch</t>
-  </si>
-  <si>
-    <t>1024 glizzy lane, globble NJ 07002</t>
-  </si>
-  <si>
-    <t>john</t>
-  </si>
-  <si>
-    <t>aaronson</t>
-  </si>
-  <si>
-    <t>bill</t>
-  </si>
-  <si>
-    <t>kyles</t>
-  </si>
-  <si>
-    <t>ryan</t>
-  </si>
-  <si>
-    <t>martins</t>
-  </si>
-  <si>
-    <t>johnaaron@gmail.com</t>
-  </si>
-  <si>
-    <t>billkyles@gmail.com</t>
-  </si>
-  <si>
-    <t>ryanmartins@gmail.com</t>
-  </si>
-  <si>
-    <t>000 555-0101</t>
-  </si>
-  <si>
-    <t>000 555-0102</t>
-  </si>
-  <si>
-    <t>000 555-0103</t>
-  </si>
-  <si>
-    <t>3321 model phone</t>
-  </si>
-  <si>
-    <t>SHEJFO</t>
-  </si>
-  <si>
-    <t>QPLIFY</t>
-  </si>
-  <si>
-    <t>SNEMUC</t>
-  </si>
-  <si>
-    <t>63-0C-EE-83-E1-1D</t>
-  </si>
-  <si>
-    <t>6D-1F-1A-B9-97-41</t>
-  </si>
-  <si>
-    <t>6D-1F-1A-B2-22-42</t>
-  </si>
-  <si>
-    <t>L3KDMNGUES</t>
-  </si>
-  <si>
-    <t>L3KDMNGUED</t>
-  </si>
-  <si>
-    <t>L3KDMNGUEF</t>
-  </si>
-  <si>
-    <t>work number</t>
-  </si>
-  <si>
-    <t>site number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +223,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -247,10 +254,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -568,316 +573,316 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" customWidth="1"/>
-    <col min="2" max="2" width="30.453125" customWidth="1"/>
+    <col min="1" max="1" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>31</v>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="2">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1">
         <v>37295482</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="2">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1">
         <v>573</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{CCECE941-2A77-4327-8EA4-82CE39270924}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{E01D9965-32C2-4CBF-B4FC-F7E97C2254D7}"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{6ADD1E06-28E8-45BA-AB50-B523CD71FFC8}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{49866BF5-3A96-4455-8A4A-F442866B5283}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14DBC944-54BF-4E48-BF48-ED9D07C1CEB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3690825E-0122-4F18-8B3E-9404C18FABC5}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B9" s="1">
+        <v>173960375</v>
+      </c>
+      <c r="C9" s="1">
+        <v>173960375</v>
+      </c>
+      <c r="D9" s="1">
+        <v>126849265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B10" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C10" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D8" t="s">
+      <c r="B11" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="2">
-        <v>173960375</v>
-      </c>
-      <c r="C9" s="2">
-        <v>173960375</v>
-      </c>
-      <c r="D9" s="2">
-        <v>126849265</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D11" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="D10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{5335F9C3-61AA-4A6B-9096-77630FC7A156}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{B1AF8D6D-6388-41D3-83B0-D65E557D4008}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{7965A920-81BF-4243-BCA5-D6A6678E8FE5}"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{AFCC89BD-B5ED-447B-A1A0-9562B62FFC14}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{8EC02668-8D7B-4350-BB44-3592D222E0FA}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{9DD559D8-446F-4D00-94F5-CCF540D169A3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F94CAFF-C2FA-47C1-B3D7-6C8FB7510127}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D8D78C-CBDC-4049-9C5E-A560FA5ED018}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>24</v>
+      <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
+      <c r="B2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
+      <c r="B3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>